--- a/Cálculo Grupo BSora.xlsx
+++ b/Cálculo Grupo BSora.xlsx
@@ -545,31 +545,31 @@
         <v>6</v>
       </c>
       <c r="C2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E2" t="n">
         <v>22</v>
       </c>
       <c r="F2" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G2" t="n">
         <v>8</v>
       </c>
       <c r="H2" t="n">
-        <v>2.639631496833559</v>
+        <v>2.764663262196313</v>
       </c>
       <c r="I2" t="n">
-        <v>154</v>
+        <v>164.5</v>
       </c>
       <c r="J2" t="n">
         <v>77</v>
       </c>
       <c r="K2" t="n">
-        <v>77</v>
+        <v>87.5</v>
       </c>
       <c r="L2" t="n">
         <v>3.95</v>
@@ -578,25 +578,25 @@
         <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>1420.978965797296</v>
+        <v>194.5224778829178</v>
       </c>
       <c r="O2" t="n">
-        <v>1847.272655536485</v>
+        <v>252.8792212477931</v>
       </c>
       <c r="P2" t="n">
         <v>15</v>
       </c>
       <c r="Q2" t="n">
-        <v>11.05106469806698</v>
+        <v>11.44784050347728</v>
       </c>
       <c r="R2" t="n">
-        <v>1.793391693236911</v>
+        <v>11.60547155363112</v>
       </c>
       <c r="S2" t="n">
-        <v>307.8787759227474</v>
+        <v>42.14653687463218</v>
       </c>
       <c r="T2" t="n">
-        <v>278.801335974488</v>
+        <v>43.08312658295735</v>
       </c>
     </row>
   </sheetData>

--- a/Cálculo Grupo BSora.xlsx
+++ b/Cálculo Grupo BSora.xlsx
@@ -545,7 +545,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>25</v>
@@ -578,10 +578,10 @@
         <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>194.5224778829178</v>
+        <v>1656.11708980487</v>
       </c>
       <c r="O2" t="n">
-        <v>252.8792212477931</v>
+        <v>2152.952216746331</v>
       </c>
       <c r="P2" t="n">
         <v>15</v>
@@ -590,13 +590,13 @@
         <v>11.44784050347728</v>
       </c>
       <c r="R2" t="n">
-        <v>11.60547155363112</v>
+        <v>1.363143401821927</v>
       </c>
       <c r="S2" t="n">
-        <v>42.14653687463218</v>
+        <v>358.8253694577218</v>
       </c>
       <c r="T2" t="n">
-        <v>43.08312658295735</v>
+        <v>366.7992665567824</v>
       </c>
     </row>
   </sheetData>

--- a/Cálculo Grupo BSora.xlsx
+++ b/Cálculo Grupo BSora.xlsx
@@ -545,7 +545,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>25</v>
@@ -578,10 +578,10 @@
         <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.11708980487</v>
+        <v>194.5224778829178</v>
       </c>
       <c r="O2" t="n">
-        <v>2152.952216746331</v>
+        <v>252.8792212477931</v>
       </c>
       <c r="P2" t="n">
         <v>15</v>
@@ -590,13 +590,13 @@
         <v>11.44784050347728</v>
       </c>
       <c r="R2" t="n">
-        <v>1.363143401821927</v>
+        <v>11.60547155363112</v>
       </c>
       <c r="S2" t="n">
-        <v>358.8253694577218</v>
+        <v>42.14653687463218</v>
       </c>
       <c r="T2" t="n">
-        <v>366.7992665567824</v>
+        <v>43.08312658295735</v>
       </c>
     </row>
   </sheetData>

--- a/Cálculo Grupo BSora.xlsx
+++ b/Cálculo Grupo BSora.xlsx
@@ -545,7 +545,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>25</v>
@@ -578,10 +578,10 @@
         <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>194.5224778829178</v>
+        <v>183.1259916072358</v>
       </c>
       <c r="O2" t="n">
-        <v>252.8792212477931</v>
+        <v>238.0637890894065</v>
       </c>
       <c r="P2" t="n">
         <v>15</v>
@@ -590,13 +590,13 @@
         <v>11.44784050347728</v>
       </c>
       <c r="R2" t="n">
-        <v>11.60547155363112</v>
+        <v>12.32771527295768</v>
       </c>
       <c r="S2" t="n">
-        <v>42.14653687463218</v>
+        <v>39.67729818156776</v>
       </c>
       <c r="T2" t="n">
-        <v>43.08312658295735</v>
+        <v>40.55901591893593</v>
       </c>
     </row>
   </sheetData>
